--- a/第三章/对比.xlsx
+++ b/第三章/对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\第三章\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF471C35-494F-4E21-B60D-9184D7632F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38BF4C-8897-456E-830A-36D01008FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{42D1C6C2-F294-4ABA-B132-81855B4E381E}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12948" xr2:uid="{42D1C6C2-F294-4ABA-B132-81855B4E381E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,12 +194,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91646E46-5318-41A0-879A-30F0E1A05C42}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,49 +532,50 @@
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="H1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -590,8 +594,8 @@
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
@@ -612,7 +616,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -636,7 +640,7 @@
       <c r="H3" s="3">
         <v>-70.040591494265755</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L3" t="s">
@@ -662,7 +666,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -684,7 +688,7 @@
       <c r="H4" s="3">
         <v>-69.727310881224952</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="5"/>
       <c r="L4" t="s">
         <v>6</v>
       </c>
@@ -708,7 +712,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -732,7 +736,7 @@
       <c r="H5" s="3">
         <v>-79.725457966036117</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="L5" t="s">
@@ -758,7 +762,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -780,7 +784,7 @@
       <c r="H6" s="3">
         <v>-70.727616193671253</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="5"/>
       <c r="L6" t="s">
         <v>9</v>
       </c>
@@ -804,7 +808,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -826,7 +830,7 @@
       <c r="H7" s="3">
         <v>-71.874649953398517</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" t="s">
         <v>10</v>
       </c>
@@ -850,7 +854,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -872,7 +876,7 @@
       <c r="H8" s="3">
         <v>-65.873488616103316</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5"/>
       <c r="L8" t="s">
         <v>11</v>
       </c>
@@ -896,7 +900,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -918,7 +922,7 @@
       <c r="H9" s="3">
         <v>-67.809724053343601</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="5"/>
       <c r="L9" t="s">
         <v>12</v>
       </c>
@@ -942,7 +946,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -966,7 +970,7 @@
       <c r="H10" s="3">
         <v>-61.947243466813269</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
@@ -992,7 +996,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1018,7 @@
       <c r="H11" s="3">
         <v>-66.800293899276127</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="5"/>
       <c r="L11" t="s">
         <v>15</v>
       </c>
@@ -1038,7 +1042,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1060,7 +1064,7 @@
       <c r="H12" s="3">
         <v>-59.51647874556469</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5"/>
       <c r="L12" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1088,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1110,7 @@
       <c r="H13" s="3">
         <v>-67.66541746454142</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
       <c r="L13" t="s">
         <v>17</v>
       </c>
@@ -1130,7 +1134,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -1154,7 +1158,7 @@
       <c r="H14" s="3">
         <v>-59.295730797075706</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L14" t="s">
@@ -1180,7 +1184,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1202,7 +1206,7 @@
       <c r="H15" s="3">
         <v>-59.902829254739032</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="5"/>
       <c r="L15" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1230,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1252,7 @@
       <c r="H16" s="3">
         <v>-60.234694132577815</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="5"/>
       <c r="L16" t="s">
         <v>21</v>
       </c>
@@ -1272,7 +1276,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1298,7 @@
       <c r="H17" s="3">
         <v>-64.449717747453633</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="5"/>
       <c r="L17" t="s">
         <v>17</v>
       </c>
@@ -1318,7 +1322,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
@@ -1342,7 +1346,7 @@
       <c r="H18" s="3">
         <v>-70.774711660888173</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L18" t="s">
@@ -1368,7 +1372,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1390,7 +1394,7 @@
       <c r="H19" s="3">
         <v>-79.1035489538517</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="5"/>
       <c r="L19" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1418,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1440,7 @@
       <c r="H20" s="3">
         <v>-79.047263239155171</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="5"/>
       <c r="L20" t="s">
         <v>25</v>
       </c>
@@ -1460,10 +1464,10 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2">
         <v>2.12</v>
       </c>
@@ -1487,10 +1491,10 @@
         <f>AVERAGE(H3:H20)</f>
         <v>-68.028709362221122</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="3">
         <f>AVERAGE(M3:M20)</f>
         <v>1.7538888888888886</v>
@@ -1517,16 +1521,82 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H23" s="3">
         <f>H21-P21</f>
         <v>-20.984264917776677</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L24" s="7">
+        <v>0.68030000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L26" s="7">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.59709999999999996</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.62250000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L27" s="7">
+        <f>L24-L26</f>
+        <v>3.9800000000000058E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <f>68.03%-M26</f>
+        <v>8.3200000000000052E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" ref="N27:R27" si="1">68.03%-N26</f>
+        <v>2.4800000000000044E-2</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000066E-2</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.20730000000000004</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1799999999999966E-2</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7799999999999963E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1787,17 +1857,10 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="E1:F1"/>
@@ -1805,10 +1868,17 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
